--- a/data/seeking_words.xlsx
+++ b/data/seeking_words.xlsx
@@ -11,7 +11,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+  <si>
+    <t>Keyword</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
   <si>
     <t>Possibilities</t>
   </si>
@@ -176,12 +182,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="12.0"/>
@@ -222,14 +232,17 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -448,367 +461,481 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1"/>
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1"/>
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1"/>
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1"/>
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1"/>
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1"/>
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1"/>
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1"/>
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1"/>
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1"/>
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1"/>
+      <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1"/>
+      <c r="A13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1"/>
+      <c r="A14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1"/>
+      <c r="A15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1"/>
+      <c r="A16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1"/>
+      <c r="A17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1"/>
+      <c r="A18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1"/>
+      <c r="A19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1"/>
+      <c r="A20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="1"/>
+      <c r="A21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="1"/>
+      <c r="A22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="1"/>
+      <c r="A23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="1"/>
+      <c r="A24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="1"/>
+      <c r="A25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="1"/>
+      <c r="A26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="1"/>
+      <c r="A27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="1"/>
+      <c r="A28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="1"/>
+      <c r="A29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="1"/>
+      <c r="A30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="1"/>
+      <c r="A31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="1"/>
+      <c r="A32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="1"/>
+      <c r="A33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="1"/>
+      <c r="A34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" s="1"/>
+      <c r="A35" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" s="1"/>
+      <c r="A36" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37" s="1"/>
+      <c r="A37" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" s="1"/>
+      <c r="A38" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" s="1"/>
+      <c r="A39" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" s="1"/>
+      <c r="A40" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41" s="1"/>
+      <c r="A41" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42" s="1"/>
+      <c r="A42" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43" s="1"/>
+      <c r="A43" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B44" s="1"/>
+      <c r="A44" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B45" s="1"/>
+      <c r="A45" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B46" s="1"/>
+      <c r="A46" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B47" s="1"/>
+      <c r="A47" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B48" s="1"/>
+      <c r="A48" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B49" s="1"/>
+      <c r="A49" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B50" s="1"/>
+      <c r="A50" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B51" s="1"/>
+      <c r="A51" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B52" s="1"/>
+      <c r="A52" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B53" s="1"/>
+      <c r="A53" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B54" s="1"/>
+      <c r="A54" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="55">
-      <c r="A55" s="2"/>
-      <c r="B55" s="1"/>
+      <c r="A55" s="3"/>
+      <c r="B55" s="2"/>
     </row>
     <row r="56">
-      <c r="A56" s="2"/>
-      <c r="B56" s="1"/>
+      <c r="A56" s="3"/>
+      <c r="B56" s="2"/>
     </row>
     <row r="57">
-      <c r="A57" s="2"/>
-      <c r="B57" s="1"/>
+      <c r="A57" s="3"/>
+      <c r="B57" s="2"/>
     </row>
     <row r="58">
-      <c r="A58" s="2"/>
-      <c r="B58" s="1"/>
+      <c r="A58" s="3"/>
+      <c r="B58" s="2"/>
     </row>
     <row r="59">
-      <c r="A59" s="2"/>
-      <c r="B59" s="1"/>
+      <c r="A59" s="3"/>
+      <c r="B59" s="2"/>
     </row>
     <row r="60">
-      <c r="A60" s="2"/>
-      <c r="B60" s="1"/>
+      <c r="A60" s="3"/>
+      <c r="B60" s="2"/>
     </row>
     <row r="61">
-      <c r="A61" s="2"/>
-      <c r="B61" s="1"/>
+      <c r="A61" s="3"/>
+      <c r="B61" s="2"/>
     </row>
     <row r="62">
-      <c r="A62" s="2"/>
-      <c r="B62" s="1"/>
+      <c r="A62" s="3"/>
+      <c r="B62" s="2"/>
     </row>
     <row r="63">
-      <c r="A63" s="2"/>
-      <c r="B63" s="1"/>
+      <c r="A63" s="3"/>
+      <c r="B63" s="2"/>
     </row>
     <row r="64">
-      <c r="A64" s="2"/>
-      <c r="B64" s="1"/>
+      <c r="A64" s="3"/>
+      <c r="B64" s="2"/>
     </row>
     <row r="65">
-      <c r="A65" s="2"/>
-      <c r="B65" s="1"/>
+      <c r="A65" s="3"/>
+      <c r="B65" s="2"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
